--- a/CATI/backtest_results.xlsx
+++ b/CATI/backtest_results.xlsx
@@ -462,7 +462,7 @@
         <v>476.91</v>
       </c>
       <c r="C2" t="n">
-        <v>491.6796149075032</v>
+        <v>491.690812844038</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>478.53</v>
       </c>
       <c r="C3" t="n">
-        <v>483.3709020674229</v>
+        <v>483.3129420161247</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>488.59</v>
       </c>
       <c r="C4" t="n">
-        <v>482.5611781060696</v>
+        <v>482.4580263823271</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>490.31</v>
       </c>
       <c r="C5" t="n">
-        <v>489.9744071781635</v>
+        <v>489.7803161144257</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>483.04</v>
       </c>
       <c r="C6" t="n">
-        <v>489.8847456514836</v>
+        <v>489.5403993487358</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>481.34</v>
       </c>
       <c r="C7" t="n">
-        <v>483.1794739276171</v>
+        <v>482.6200062900782</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>481.48</v>
       </c>
       <c r="C8" t="n">
-        <v>483.2056837320328</v>
+        <v>482.3983203113079</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>477.23</v>
       </c>
       <c r="C9" t="n">
-        <v>482.0791498571634</v>
+        <v>481.0823384195566</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>473.33</v>
       </c>
       <c r="C10" t="n">
-        <v>480.8857112377882</v>
+        <v>479.7109325945377</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>475.25</v>
       </c>
       <c r="C11" t="n">
-        <v>477.2991623818875</v>
+        <v>476.0662383556366</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>473.93</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8548085212707</v>
+        <v>478.6780009835958</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>475.08</v>
       </c>
       <c r="C13" t="n">
-        <v>477.433781477809</v>
+        <v>476.3162410676479</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>484.11</v>
       </c>
       <c r="C14" t="n">
-        <v>477.00216345191</v>
+        <v>475.982175797224</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>483.45</v>
       </c>
       <c r="C15" t="n">
-        <v>481.2270141988993</v>
+        <v>480.1589768618346</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>489.25</v>
       </c>
       <c r="C16" t="n">
-        <v>482.9636795461178</v>
+        <v>481.7774298459291</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>495.02</v>
       </c>
       <c r="C17" t="n">
-        <v>490.3868384957314</v>
+        <v>488.8905971378088</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>496.72</v>
       </c>
       <c r="C18" t="n">
-        <v>497.1696373969316</v>
+        <v>495.3852442592383</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>487.77</v>
       </c>
       <c r="C19" t="n">
-        <v>500.8545681238174</v>
+        <v>498.9796550810337</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>475.11</v>
       </c>
       <c r="C20" t="n">
-        <v>497.253182977438</v>
+        <v>495.3453979432583</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>477.07</v>
       </c>
       <c r="C21" t="n">
-        <v>489.596037876606</v>
+        <v>487.5663240909577</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>489.72</v>
       </c>
       <c r="C22" t="n">
-        <v>487.1128369241953</v>
+        <v>485.0201396226883</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>482.39</v>
       </c>
       <c r="C23" t="n">
-        <v>492.7580503284931</v>
+        <v>490.7004685074091</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>478.52</v>
       </c>
       <c r="C24" t="n">
-        <v>491.9888262212277</v>
+        <v>489.9921014785767</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>486.06</v>
       </c>
       <c r="C25" t="n">
-        <v>490.4310644924641</v>
+        <v>488.4099052280188</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>492.91</v>
       </c>
       <c r="C26" t="n">
-        <v>487.1089644670487</v>
+        <v>485.1642886698246</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>486.7</v>
       </c>
       <c r="C27" t="n">
-        <v>494.5179601728916</v>
+        <v>492.6614632487297</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>493.61</v>
       </c>
       <c r="C28" t="n">
-        <v>491.9652988493443</v>
+        <v>490.1581391751766</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>522.04</v>
       </c>
       <c r="C29" t="n">
-        <v>495.8622197806835</v>
+        <v>494.0455594182014</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>514.79</v>
       </c>
       <c r="C30" t="n">
-        <v>512.7345643401146</v>
+        <v>510.9139242231846</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>498.37</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4154220551252</v>
+        <v>509.305108487606</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>490.31</v>
       </c>
       <c r="C32" t="n">
-        <v>509.1712892442942</v>
+        <v>506.5824882388115</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>482.02</v>
       </c>
       <c r="C33" t="n">
-        <v>503.185748308897</v>
+        <v>499.9822410643101</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>482.6499999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>497.8437668323517</v>
+        <v>494.0996177494526</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>479.23</v>
       </c>
       <c r="C35" t="n">
-        <v>489.5272310435772</v>
+        <v>485.3723088741303</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>482.12</v>
       </c>
       <c r="C36" t="n">
-        <v>486.0878843307495</v>
+        <v>481.7864720821381</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>494.81</v>
       </c>
       <c r="C37" t="n">
-        <v>483.7382099926472</v>
+        <v>479.549723276496</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>490</v>
       </c>
       <c r="C38" t="n">
-        <v>491.61708984375</v>
+        <v>487.6242646336556</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>486.11</v>
       </c>
       <c r="C39" t="n">
-        <v>488.7241204977036</v>
+        <v>484.8920559078455</v>
       </c>
     </row>
     <row r="40">
@@ -880,7 +880,7 @@
         <v>488.64</v>
       </c>
       <c r="C40" t="n">
-        <v>487.0564278066158</v>
+        <v>483.3882257044315</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>487.26</v>
       </c>
       <c r="C41" t="n">
-        <v>483.0864179044962</v>
+        <v>479.5964853912592</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>487.12</v>
       </c>
       <c r="C42" t="n">
-        <v>488.6559379398823</v>
+        <v>485.3287559241057</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>495.14</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1021212339401</v>
+        <v>478.9160741865635</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>488.51</v>
       </c>
       <c r="C44" t="n">
-        <v>493.4864917069673</v>
+        <v>490.3760307312012</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>488.37</v>
       </c>
       <c r="C45" t="n">
-        <v>490.3232404589653</v>
+        <v>487.2376236855984</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>483.25</v>
       </c>
       <c r="C46" t="n">
-        <v>490.3370037764311</v>
+        <v>487.0970252037048</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>486.77</v>
       </c>
       <c r="C47" t="n">
-        <v>483.6817911207676</v>
+        <v>480.1842404991389</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>525.75</v>
       </c>
       <c r="C48" t="n">
-        <v>485.4137256324291</v>
+        <v>481.7107689589262</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>551.66</v>
       </c>
       <c r="C49" t="n">
-        <v>513.4284462332726</v>
+        <v>509.7028888463974</v>
       </c>
     </row>
     <row r="50">
@@ -990,7 +990,7 @@
         <v>555.85</v>
       </c>
       <c r="C50" t="n">
-        <v>530.8173980355263</v>
+        <v>527.2333170175552</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>581.12</v>
       </c>
       <c r="C51" t="n">
-        <v>541.8430346131325</v>
+        <v>538.5315667748451</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>567.37</v>
       </c>
       <c r="C52" t="n">
-        <v>556.7845349729062</v>
+        <v>554.4881581306457</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>581.76</v>
       </c>
       <c r="C53" t="n">
-        <v>559.0138412475586</v>
+        <v>556.7557597875596</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>574.95</v>
       </c>
       <c r="C54" t="n">
-        <v>574.6242915093899</v>
+        <v>573.0986799538135</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>574.13</v>
       </c>
       <c r="C55" t="n">
-        <v>577.4967963337898</v>
+        <v>575.895510917902</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>574.9</v>
       </c>
       <c r="C56" t="n">
-        <v>578.1466473162175</v>
+        <v>575.6638267815114</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>564.36</v>
       </c>
       <c r="C57" t="n">
-        <v>577.834119540453</v>
+        <v>575.0636837124824</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>540.99</v>
       </c>
       <c r="C58" t="n">
-        <v>573.781890642643</v>
+        <v>570.7988305807114</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>542.91</v>
       </c>
       <c r="C59" t="n">
-        <v>573.7607433199883</v>
+        <v>570.4060054063797</v>
       </c>
     </row>
     <row r="60">
@@ -1100,7 +1100,7 @@
         <v>535.25</v>
       </c>
       <c r="C60" t="n">
-        <v>565.1169897794724</v>
+        <v>561.8066924571991</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>545.6799999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>561.0877810299397</v>
+        <v>558.0972881913185</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>541.78</v>
       </c>
       <c r="C62" t="n">
-        <v>559.9886079668998</v>
+        <v>557.610821735859</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>546.67</v>
       </c>
       <c r="C63" t="n">
-        <v>557.3909403026104</v>
+        <v>555.3640357553959</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>544.22</v>
       </c>
       <c r="C64" t="n">
-        <v>554.2220413148403</v>
+        <v>552.640966808796</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>548.9400000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>550.6323613286019</v>
+        <v>549.4703120470048</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>543.91</v>
       </c>
       <c r="C66" t="n">
-        <v>548.4825330913067</v>
+        <v>547.9235141515732</v>
       </c>
     </row>
     <row r="67">
@@ -1177,7 +1177,7 @@
         <v>536.72</v>
       </c>
       <c r="C67" t="n">
-        <v>543.6892700135708</v>
+        <v>543.5441065192223</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>534.5599999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>542.3457322239876</v>
+        <v>542.4408951759339</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>528.08</v>
       </c>
       <c r="C69" t="n">
-        <v>536.7195299506187</v>
+        <v>536.7848447442055</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>528.37</v>
       </c>
       <c r="C70" t="n">
-        <v>535.9470283985138</v>
+        <v>535.8599810242653</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>526.85</v>
       </c>
       <c r="C71" t="n">
-        <v>534.4991000890732</v>
+        <v>534.4500944852829</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>524.22</v>
       </c>
       <c r="C72" t="n">
-        <v>529.1271924197674</v>
+        <v>528.8888948678971</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>521.61</v>
       </c>
       <c r="C73" t="n">
-        <v>528.7771105885506</v>
+        <v>528.0899396538734</v>
       </c>
     </row>
     <row r="74">
@@ -1254,7 +1254,7 @@
         <v>520</v>
       </c>
       <c r="C74" t="n">
-        <v>532.5334525465965</v>
+        <v>531.4241350114346</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>528.09</v>
       </c>
       <c r="C75" t="n">
-        <v>525.4774259448052</v>
+        <v>523.9527703106404</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>533.45</v>
       </c>
       <c r="C76" t="n">
-        <v>527.2410034060479</v>
+        <v>525.5385854065419</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>547.62</v>
       </c>
       <c r="C77" t="n">
-        <v>530.8537230491638</v>
+        <v>529.0992170870304</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>544.03</v>
       </c>
       <c r="C78" t="n">
-        <v>539.2612469494343</v>
+        <v>537.6758220255375</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>546.26</v>
       </c>
       <c r="C79" t="n">
-        <v>542.3483853936195</v>
+        <v>540.8213692188264</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>558.08</v>
       </c>
       <c r="C80" t="n">
-        <v>545.5809214353561</v>
+        <v>544.0758524358273</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>554.3</v>
       </c>
       <c r="C81" t="n">
-        <v>544.7088284790516</v>
+        <v>543.3872768819332</v>
       </c>
     </row>
     <row r="82">
@@ -1342,7 +1342,7 @@
         <v>572.71</v>
       </c>
       <c r="C82" t="n">
-        <v>551.7069730639458</v>
+        <v>550.2764074087144</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>559.11</v>
       </c>
       <c r="C83" t="n">
-        <v>553.9780862689018</v>
+        <v>552.7385293185711</v>
       </c>
     </row>
     <row r="84">
@@ -1364,7 +1364,7 @@
         <v>555.6900000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>556.4543324053287</v>
+        <v>555.2141706883907</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>554.55</v>
       </c>
       <c r="C85" t="n">
-        <v>561.8845512807369</v>
+        <v>560.5459686756134</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>544.9299999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>559.0637442469597</v>
+        <v>557.7723529458046</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>537.2</v>
       </c>
       <c r="C87" t="n">
-        <v>556.4084871947765</v>
+        <v>555.2040067076683</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>538.36</v>
       </c>
       <c r="C88" t="n">
-        <v>549.6967093527318</v>
+        <v>548.5296853780746</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>539.83</v>
       </c>
       <c r="C89" t="n">
-        <v>549.2502160191536</v>
+        <v>548.2786682188511</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>531.38</v>
       </c>
       <c r="C90" t="n">
-        <v>544.166235780716</v>
+        <v>543.4812107920646</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>529.75</v>
       </c>
       <c r="C91" t="n">
-        <v>537.3595095813274</v>
+        <v>537.0223814606667</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>529.59</v>
       </c>
       <c r="C92" t="n">
-        <v>534.9804552912713</v>
+        <v>535.0127810418606</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>526.85</v>
       </c>
       <c r="C93" t="n">
-        <v>531.3454958438873</v>
+        <v>531.6433531522752</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>520.12</v>
       </c>
       <c r="C94" t="n">
-        <v>529.027288877964</v>
+        <v>529.5741929769516</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>519.77</v>
       </c>
       <c r="C95" t="n">
-        <v>524.9152271032334</v>
+        <v>525.6236233949661</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>523.3099999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>522.3981494665146</v>
+        <v>523.0439816772938</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>515.83</v>
       </c>
       <c r="C97" t="n">
-        <v>521.4567034363747</v>
+        <v>521.9877080261707</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>517.23</v>
       </c>
       <c r="C98" t="n">
-        <v>519.1824298381806</v>
+        <v>519.3631575107574</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>516.8</v>
       </c>
       <c r="C99" t="n">
-        <v>516.2893434405327</v>
+        <v>516.0091609239579</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>513.28</v>
       </c>
       <c r="C100" t="n">
-        <v>516.6991410970688</v>
+        <v>515.9071504533291</v>
       </c>
     </row>
     <row r="101">
@@ -1551,7 +1551,7 @@
         <v>511.59</v>
       </c>
       <c r="C101" t="n">
-        <v>510.6820254921913</v>
+        <v>509.4132446587086</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>505.9</v>
       </c>
       <c r="C102" t="n">
-        <v>508.7022244602442</v>
+        <v>506.9850286960602</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>506.26</v>
       </c>
       <c r="C103" t="n">
-        <v>508.8908238530159</v>
+        <v>506.8446643173694</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>508.27</v>
       </c>
       <c r="C104" t="n">
-        <v>506.5717975258827</v>
+        <v>504.3829520881176</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>517.78</v>
       </c>
       <c r="C105" t="n">
-        <v>506.2313919603825</v>
+        <v>503.9259826362133</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>510.16</v>
       </c>
       <c r="C106" t="n">
-        <v>511.2585826635361</v>
+        <v>508.8762606829405</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>506.0699999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>507.4859705328942</v>
+        <v>505.0000969022512</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>508.22</v>
       </c>
       <c r="C108" t="n">
-        <v>507.3622469902039</v>
+        <v>504.793686157465</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>504.71</v>
       </c>
       <c r="C109" t="n">
-        <v>507.8542733967304</v>
+        <v>505.3595331072808</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>504.28</v>
       </c>
       <c r="C110" t="n">
-        <v>505.5232492804527</v>
+        <v>503.1523105680943</v>
       </c>
     </row>
     <row r="111">
@@ -1661,7 +1661,7 @@
         <v>503.2</v>
       </c>
       <c r="C111" t="n">
-        <v>505.0202883034945</v>
+        <v>502.7723610699177</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>501.49</v>
       </c>
       <c r="C112" t="n">
-        <v>502.8241954207421</v>
+        <v>500.6117640852928</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>497.36</v>
       </c>
       <c r="C113" t="n">
-        <v>502.587751185894</v>
+        <v>500.4193410068751</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>464.0000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>498.6972290754318</v>
+        <v>496.5313062429428</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>491.68</v>
       </c>
       <c r="C115" t="n">
-        <v>485.6367674589157</v>
+        <v>483.7546362340451</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>502.2</v>
       </c>
       <c r="C116" t="n">
-        <v>493.859388846159</v>
+        <v>492.1666276037693</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>496</v>
       </c>
       <c r="C117" t="n">
-        <v>498.7366657108068</v>
+        <v>497.2488423138857</v>
       </c>
     </row>
     <row r="118">
@@ -1738,7 +1738,7 @@
         <v>497</v>
       </c>
       <c r="C118" t="n">
-        <v>498.4493332922459</v>
+        <v>497.072533339262</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>503</v>
       </c>
       <c r="C119" t="n">
-        <v>498.1286704301834</v>
+        <v>496.7310548007488</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>497.3</v>
       </c>
       <c r="C120" t="n">
-        <v>500.9867388904095</v>
+        <v>499.5713119089604</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>490</v>
       </c>
       <c r="C121" t="n">
-        <v>499.7764545947313</v>
+        <v>498.2849928438663</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>495.9</v>
       </c>
       <c r="C122" t="n">
-        <v>495.3189637899399</v>
+        <v>493.684884417057</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>482</v>
       </c>
       <c r="C123" t="n">
-        <v>498.9778797984123</v>
+        <v>497.1878291666508</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>486</v>
       </c>
       <c r="C124" t="n">
-        <v>493.8451183050871</v>
+        <v>491.8737352341413</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>482.9999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>489.2817835897208</v>
+        <v>487.2419741034508</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>482.7</v>
       </c>
       <c r="C126" t="n">
-        <v>488.3131523251533</v>
+        <v>486.2482255160809</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>484</v>
       </c>
       <c r="C127" t="n">
-        <v>483.8042173415423</v>
+        <v>481.7367251515388</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>481</v>
       </c>
       <c r="C128" t="n">
-        <v>484.5038835346699</v>
+        <v>482.5049348115921</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>480.1</v>
       </c>
       <c r="C129" t="n">
-        <v>482.5321102917194</v>
+        <v>480.3806628406048</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>490</v>
       </c>
       <c r="C130" t="n">
-        <v>480.5386434853077</v>
+        <v>478.2648380935192</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>489</v>
       </c>
       <c r="C131" t="n">
-        <v>482.8406192958355</v>
+        <v>480.5841570496559</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>504</v>
       </c>
       <c r="C132" t="n">
-        <v>486.3326392292976</v>
+        <v>484.1344686806202</v>
       </c>
     </row>
     <row r="133">
@@ -1903,7 +1903,7 @@
         <v>503</v>
       </c>
       <c r="C133" t="n">
-        <v>493.0351699948311</v>
+        <v>490.8034446537495</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>496</v>
       </c>
       <c r="C134" t="n">
-        <v>494.1433755397797</v>
+        <v>491.9779599308968</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>494.9</v>
       </c>
       <c r="C135" t="n">
-        <v>494.1071968406439</v>
+        <v>491.8298116207123</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>490</v>
       </c>
       <c r="C136" t="n">
-        <v>495.4313528358936</v>
+        <v>492.9455474853516</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>490</v>
       </c>
       <c r="C137" t="n">
-        <v>487.0094120800495</v>
+        <v>484.2274466693402</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>486.6</v>
       </c>
       <c r="C138" t="n">
-        <v>486.8514314353466</v>
+        <v>483.7144972890616</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>484.9</v>
       </c>
       <c r="C139" t="n">
-        <v>483.7614837527275</v>
+        <v>480.3982986152172</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>488</v>
       </c>
       <c r="C140" t="n">
-        <v>483.1139933109284</v>
+        <v>479.6830548048019</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>490</v>
       </c>
       <c r="C141" t="n">
-        <v>484.4334769964218</v>
+        <v>481.0335376560688</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>484.6000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>487.4313440859318</v>
+        <v>484.1490220963955</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>480.7</v>
       </c>
       <c r="C143" t="n">
-        <v>480.9750898897648</v>
+        <v>477.8332298219204</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>484</v>
       </c>
       <c r="C144" t="n">
-        <v>479.5012834221125</v>
+        <v>476.532513409853</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>482.5</v>
       </c>
       <c r="C145" t="n">
-        <v>479.1684374392033</v>
+        <v>476.3914369672537</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>482.8</v>
       </c>
       <c r="C146" t="n">
-        <v>477.9269491374493</v>
+        <v>475.2716920852661</v>
       </c>
     </row>
     <row r="147">
@@ -2057,7 +2057,7 @@
         <v>483.8999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>476.3780248045921</v>
+        <v>473.8980720341206</v>
       </c>
     </row>
     <row r="148">
@@ -2068,7 +2068,7 @@
         <v>490.7</v>
       </c>
       <c r="C148" t="n">
-        <v>477.4848159760237</v>
+        <v>475.0415978997946</v>
       </c>
     </row>
     <row r="149">
@@ -2079,7 +2079,7 @@
         <v>497</v>
       </c>
       <c r="C149" t="n">
-        <v>478.4725461602211</v>
+        <v>475.7967270433903</v>
       </c>
     </row>
     <row r="150">
@@ -2090,7 +2090,7 @@
         <v>501.1</v>
       </c>
       <c r="C150" t="n">
-        <v>490.270001488924</v>
+        <v>487.2263477146626</v>
       </c>
     </row>
     <row r="151">
@@ -2101,7 +2101,7 @@
         <v>505.9999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>496.8072651475668</v>
+        <v>493.2347917467356</v>
       </c>
     </row>
     <row r="152">
@@ -2112,7 +2112,7 @@
         <v>505.5</v>
       </c>
       <c r="C152" t="n">
-        <v>502.6992720991373</v>
+        <v>498.6965072572231</v>
       </c>
     </row>
     <row r="153">
@@ -2123,7 +2123,7 @@
         <v>496</v>
       </c>
       <c r="C153" t="n">
-        <v>506.9885987699032</v>
+        <v>502.6299677968025</v>
       </c>
     </row>
     <row r="154">
@@ -2134,7 +2134,7 @@
         <v>495.9</v>
       </c>
       <c r="C154" t="n">
-        <v>502.3819744706154</v>
+        <v>497.8685622632503</v>
       </c>
     </row>
     <row r="155">
@@ -2145,7 +2145,7 @@
         <v>495.1</v>
       </c>
       <c r="C155" t="n">
-        <v>502.4655200511217</v>
+        <v>498.0250602543354</v>
       </c>
     </row>
     <row r="156">
@@ -2156,7 +2156,7 @@
         <v>490</v>
       </c>
       <c r="C156" t="n">
-        <v>500.586285853386</v>
+        <v>496.3642150819302</v>
       </c>
     </row>
     <row r="157">
@@ -2167,7 +2167,7 @@
         <v>490</v>
       </c>
       <c r="C157" t="n">
-        <v>494.5717161208391</v>
+        <v>490.6423621416092</v>
       </c>
     </row>
     <row r="158">
@@ -2178,7 +2178,7 @@
         <v>491.0000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>494.4389308333397</v>
+        <v>490.8379943847656</v>
       </c>
     </row>
     <row r="159">
@@ -2189,7 +2189,7 @@
         <v>495.0000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>493.2728432714939</v>
+        <v>490.109601777792</v>
       </c>
     </row>
     <row r="160">
@@ -2200,7 +2200,7 @@
         <v>492.2</v>
       </c>
       <c r="C160" t="n">
-        <v>491.1333448380232</v>
+        <v>488.3525694519282</v>
       </c>
     </row>
     <row r="161">
@@ -2211,7 +2211,7 @@
         <v>491.2</v>
       </c>
       <c r="C161" t="n">
-        <v>490.5372498035431</v>
+        <v>488.1177346765995</v>
       </c>
     </row>
     <row r="162">
@@ -2222,7 +2222,7 @@
         <v>491.5</v>
       </c>
       <c r="C162" t="n">
-        <v>491.8774126052857</v>
+        <v>489.8285413742066</v>
       </c>
     </row>
     <row r="163">
@@ -2233,7 +2233,7 @@
         <v>490</v>
       </c>
       <c r="C163" t="n">
-        <v>486.5338314235211</v>
+        <v>484.8704501330853</v>
       </c>
     </row>
     <row r="164">
@@ -2244,7 +2244,7 @@
         <v>495.0000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>483.7607424259186</v>
+        <v>482.5302179574966</v>
       </c>
     </row>
     <row r="165">
@@ -2255,7 +2255,7 @@
         <v>496</v>
       </c>
       <c r="C165" t="n">
-        <v>486.6070667088032</v>
+        <v>485.7806531399489</v>
       </c>
     </row>
     <row r="166">
@@ -2266,7 +2266,7 @@
         <v>491.5</v>
       </c>
       <c r="C166" t="n">
-        <v>490.0417508661747</v>
+        <v>489.5539968430996</v>
       </c>
     </row>
     <row r="167">
@@ -2277,7 +2277,7 @@
         <v>490.9</v>
       </c>
       <c r="C167" t="n">
-        <v>487.0011599421501</v>
+        <v>486.7042000293732</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>491.0000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>480.7223559737205</v>
+        <v>480.3847596466541</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>494.1000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>485.1417367279529</v>
+        <v>484.7247989237309</v>
       </c>
     </row>
     <row r="170">
@@ -2310,7 +2310,7 @@
         <v>498</v>
       </c>
       <c r="C170" t="n">
-        <v>494.8825564026833</v>
+        <v>494.3669050812721</v>
       </c>
     </row>
   </sheetData>
